--- a/02.models/wald_tab.xlsx
+++ b/02.models/wald_tab.xlsx
@@ -47,25 +47,25 @@
     <t>9</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>Per capita GDP</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
-    <t>Treated Water Access</t>
-  </si>
-  <si>
-    <t>Waste Management</t>
-  </si>
-  <si>
-    <t>Urban Population</t>
+    <t>População</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>PIB per capta</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Acesso à Tratamento de Água</t>
+  </si>
+  <si>
+    <t>Acesso à Coleta de Lixo</t>
+  </si>
+  <si>
+    <t>Porcetagem de População Urbana</t>
   </si>
   <si>
     <t>Latitute</t>
